--- a/dashboard/tests/fixtures/new_format_small.xlsx
+++ b/dashboard/tests/fixtures/new_format_small.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Reporting facilities" sheetId="1" r:id="rId1"/>
+    <sheet name="Facility Index" sheetId="1" r:id="rId1"/>
     <sheet name="CONSUMPTION" sheetId="2" r:id="rId2"/>
     <sheet name="PATIENTS (ADULT)" sheetId="3" r:id="rId3"/>
     <sheet name="PATIENTS (PAED)" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="150000" calcMode="manual" calcCompleted="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="116">
   <si>
     <t>Facility</t>
   </si>
@@ -213,13 +213,175 @@
   </si>
   <si>
     <t>TDF/3TC/ATV/r (ADULT)</t>
+  </si>
+  <si>
+    <t>Reference list:</t>
+  </si>
+  <si>
+    <t>STATIC Master list</t>
+  </si>
+  <si>
+    <t>Facility in THIS CYCLE</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>Multiple orders submitted?</t>
+  </si>
+  <si>
+    <t>Nkokonjeru HC III_Kayunga</t>
+  </si>
+  <si>
+    <t>Reporting</t>
+  </si>
+  <si>
+    <t>Walter Reed</t>
+  </si>
+  <si>
+    <t>Kayunga</t>
+  </si>
+  <si>
+    <t>Abarilela HC III_Amuria</t>
+  </si>
+  <si>
+    <t>UNICEF</t>
+  </si>
+  <si>
+    <t>Amuria</t>
+  </si>
+  <si>
+    <t>Abim HOSPITAL_Abim</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Abim</t>
+  </si>
+  <si>
+    <t>Acowa HC III_Amuria</t>
+  </si>
+  <si>
+    <t>Agu HC III_Ngora</t>
+  </si>
+  <si>
+    <t>Baylor</t>
+  </si>
+  <si>
+    <t>Ngora</t>
+  </si>
+  <si>
+    <t>Ajeluk HC III_Ngora</t>
+  </si>
+  <si>
+    <t>Multiple orders</t>
+  </si>
+  <si>
+    <t>Aketa HC III_Katakwi</t>
+  </si>
+  <si>
+    <t>UPMB</t>
+  </si>
+  <si>
+    <t>Katakwi</t>
+  </si>
+  <si>
+    <t>Alerek HC III_Abim</t>
+  </si>
+  <si>
+    <t>Alwa HC III_Kaberamaido</t>
+  </si>
+  <si>
+    <t>UCMB</t>
+  </si>
+  <si>
+    <t>Kaberamaido</t>
+  </si>
+  <si>
+    <t>Amolatar HC IV_Amolatar</t>
+  </si>
+  <si>
+    <t>NUHITES</t>
+  </si>
+  <si>
+    <t>Amolatar</t>
+  </si>
+  <si>
+    <t>Amoru HC III_Kaberamaido</t>
+  </si>
+  <si>
+    <t>Amuria HC IV_Amuria</t>
+  </si>
+  <si>
+    <t>Anyara HC III_Kaberamaido</t>
+  </si>
+  <si>
+    <t>Apapai HC IV_Serere</t>
+  </si>
+  <si>
+    <t>Mildmay</t>
+  </si>
+  <si>
+    <t>Serere</t>
+  </si>
+  <si>
+    <t>Apeitolim HC II_Napak</t>
+  </si>
+  <si>
+    <t>Star EC</t>
+  </si>
+  <si>
+    <t>Napak</t>
+  </si>
+  <si>
+    <t>Asamuk HC III_Amuria</t>
+  </si>
+  <si>
+    <t>Asuret HC III_Soroti</t>
+  </si>
+  <si>
+    <t>AIC</t>
+  </si>
+  <si>
+    <t>Soroti</t>
+  </si>
+  <si>
+    <t>Atiak HC IV_Amuru</t>
+  </si>
+  <si>
+    <t>Amuru</t>
+  </si>
+  <si>
+    <t>Atiira HC III_Serere</t>
+  </si>
+  <si>
+    <t>ATIRIR HC IV_Soroti</t>
+  </si>
+  <si>
+    <t>Atutur HOSPITAL_Kumi</t>
+  </si>
+  <si>
+    <t>Kumi</t>
+  </si>
+  <si>
+    <t>Balawoli HC III_Kamuli</t>
+  </si>
+  <si>
+    <t>Kamuli</t>
+  </si>
+  <si>
+    <t>Bbaale HC IV_Kayunga</t>
+  </si>
+  <si>
+    <t>Bibia HC III_Amuru</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -248,6 +410,32 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.2"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.2"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13.2"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -295,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -310,6 +498,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,12 +779,753 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
+      <c r="B26" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+      <c r="B27" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+      <c r="B28" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -601,7 +1534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:AC15"/>
     </sheetView>
   </sheetViews>
